--- a/구매기록지.xlsx
+++ b/구매기록지.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,6 +1710,4182 @@
       <c r="M21" s="2" t="n"/>
       <c r="N21" s="2" t="n"/>
     </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>네이버</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+    </row>
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+    </row>
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+    </row>
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
+    </row>
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
+    </row>
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="n"/>
+    </row>
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="n"/>
+      <c r="M69" s="2" t="n"/>
+      <c r="N69" s="2" t="n"/>
+    </row>
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>구</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L70" s="2" t="n"/>
+      <c r="M70" s="2" t="n"/>
+      <c r="N70" s="2" t="n"/>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L71" s="2" t="n"/>
+      <c r="M71" s="2" t="n"/>
+      <c r="N71" s="2" t="n"/>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L72" s="2" t="n"/>
+      <c r="M72" s="2" t="n"/>
+      <c r="N72" s="2" t="n"/>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L73" s="2" t="n"/>
+      <c r="M73" s="2" t="n"/>
+      <c r="N73" s="2" t="n"/>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L74" s="2" t="n"/>
+      <c r="M74" s="2" t="n"/>
+      <c r="N74" s="2" t="n"/>
+    </row>
+    <row r="75" ht="15" customHeight="1">
+      <c r="A75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L75" s="2" t="n"/>
+      <c r="M75" s="2" t="n"/>
+      <c r="N75" s="2" t="n"/>
+    </row>
+    <row r="76" ht="15" customHeight="1">
+      <c r="A76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="n"/>
+      <c r="M76" s="2" t="n"/>
+      <c r="N76" s="2" t="n"/>
+    </row>
+    <row r="77" ht="15" customHeight="1">
+      <c r="A77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L77" s="2" t="n"/>
+      <c r="M77" s="2" t="n"/>
+      <c r="N77" s="2" t="n"/>
+    </row>
+    <row r="78" ht="15" customHeight="1">
+      <c r="A78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L78" s="2" t="n"/>
+      <c r="M78" s="2" t="n"/>
+      <c r="N78" s="2" t="n"/>
+    </row>
+    <row r="79" ht="15" customHeight="1">
+      <c r="A79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L79" s="2" t="n"/>
+      <c r="M79" s="2" t="n"/>
+      <c r="N79" s="2" t="n"/>
+    </row>
+    <row r="80" ht="15" customHeight="1">
+      <c r="A80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L80" s="2" t="n"/>
+      <c r="M80" s="2" t="n"/>
+      <c r="N80" s="2" t="n"/>
+    </row>
+    <row r="81" ht="15" customHeight="1">
+      <c r="A81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L81" s="2" t="n"/>
+      <c r="M81" s="2" t="n"/>
+      <c r="N81" s="2" t="n"/>
+    </row>
+    <row r="82" ht="15" customHeight="1">
+      <c r="A82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L82" s="2" t="n"/>
+      <c r="M82" s="2" t="n"/>
+      <c r="N82" s="2" t="n"/>
+    </row>
+    <row r="83" ht="15" customHeight="1">
+      <c r="A83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>개발중</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L83" s="2" t="n"/>
+      <c r="M83" s="2" t="n"/>
+      <c r="N83" s="2" t="n"/>
+    </row>
+    <row r="84" ht="15" customHeight="1">
+      <c r="A84" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L84" s="2" t="n"/>
+      <c r="M84" s="2" t="n"/>
+      <c r="N84" s="2" t="n"/>
+    </row>
+    <row r="85" ht="15" customHeight="1">
+      <c r="A85" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L85" s="2" t="n"/>
+      <c r="M85" s="2" t="n"/>
+      <c r="N85" s="2" t="n"/>
+    </row>
+    <row r="86" ht="15" customHeight="1">
+      <c r="A86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L86" s="2" t="n"/>
+      <c r="M86" s="2" t="n"/>
+      <c r="N86" s="2" t="n"/>
+    </row>
+    <row r="87" ht="15" customHeight="1">
+      <c r="A87" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L87" s="2" t="n"/>
+      <c r="M87" s="2" t="n"/>
+      <c r="N87" s="2" t="n"/>
+    </row>
+    <row r="88" ht="15" customHeight="1">
+      <c r="A88" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L88" s="2" t="n"/>
+      <c r="M88" s="2" t="n"/>
+      <c r="N88" s="2" t="n"/>
+    </row>
+    <row r="89" ht="15" customHeight="1">
+      <c r="A89" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L89" s="2" t="n"/>
+      <c r="M89" s="2" t="n"/>
+      <c r="N89" s="2" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1">
+      <c r="A90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L90" s="2" t="n"/>
+      <c r="M90" s="2" t="n"/>
+      <c r="N90" s="2" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1">
+      <c r="A91" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L91" s="2" t="n"/>
+      <c r="M91" s="2" t="n"/>
+      <c r="N91" s="2" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1">
+      <c r="A92" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L92" s="2" t="n"/>
+      <c r="M92" s="2" t="n"/>
+      <c r="N92" s="2" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1">
+      <c r="A93" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L93" s="2" t="n"/>
+      <c r="M93" s="2" t="n"/>
+      <c r="N93" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/구매기록지.xlsx
+++ b/구매기록지.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5886,6 +5886,1340 @@
       <c r="M93" s="2" t="n"/>
       <c r="N93" s="2" t="n"/>
     </row>
+    <row r="94" ht="15" customHeight="1">
+      <c r="A94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L94" s="2" t="n"/>
+      <c r="M94" s="2" t="n"/>
+      <c r="N94" s="2" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1">
+      <c r="A95" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L95" s="2" t="n"/>
+      <c r="M95" s="2" t="n"/>
+      <c r="N95" s="2" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1">
+      <c r="A96" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>구</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L96" s="2" t="n"/>
+      <c r="M96" s="2" t="n"/>
+      <c r="N96" s="2" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="A97" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L97" s="2" t="n"/>
+      <c r="M97" s="2" t="n"/>
+      <c r="N97" s="2" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="A98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L98" s="2" t="n"/>
+      <c r="M98" s="2" t="n"/>
+      <c r="N98" s="2" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1">
+      <c r="A99" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L99" s="2" t="n"/>
+      <c r="M99" s="2" t="n"/>
+      <c r="N99" s="2" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="A100" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L100" s="2" t="n"/>
+      <c r="M100" s="2" t="n"/>
+      <c r="N100" s="2" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1">
+      <c r="A101" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L101" s="2" t="n"/>
+      <c r="M101" s="2" t="n"/>
+      <c r="N101" s="2" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="A102" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L102" s="2" t="n"/>
+      <c r="M102" s="2" t="n"/>
+      <c r="N102" s="2" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1">
+      <c r="A103" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="2" t="n"/>
+      <c r="N103" s="2" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1">
+      <c r="A104" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L104" s="2" t="n"/>
+      <c r="M104" s="2" t="n"/>
+      <c r="N104" s="2" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1">
+      <c r="A105" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L105" s="2" t="n"/>
+      <c r="M105" s="2" t="n"/>
+      <c r="N105" s="2" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1">
+      <c r="A106" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L106" s="2" t="n"/>
+      <c r="M106" s="2" t="n"/>
+      <c r="N106" s="2" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1">
+      <c r="A107" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L107" s="2" t="n"/>
+      <c r="M107" s="2" t="n"/>
+      <c r="N107" s="2" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1">
+      <c r="A108" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L108" s="2" t="n"/>
+      <c r="M108" s="2" t="n"/>
+      <c r="N108" s="2" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1">
+      <c r="A109" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L109" s="2" t="n"/>
+      <c r="M109" s="2" t="n"/>
+      <c r="N109" s="2" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="A110" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L110" s="2" t="n"/>
+      <c r="M110" s="2" t="n"/>
+      <c r="N110" s="2" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="A111" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L111" s="2" t="n"/>
+      <c r="M111" s="2" t="n"/>
+      <c r="N111" s="2" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1">
+      <c r="A112" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L112" s="2" t="n"/>
+      <c r="M112" s="2" t="n"/>
+      <c r="N112" s="2" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1">
+      <c r="A113" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L113" s="2" t="n"/>
+      <c r="M113" s="2" t="n"/>
+      <c r="N113" s="2" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1">
+      <c r="A114" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L114" s="2" t="n"/>
+      <c r="M114" s="2" t="n"/>
+      <c r="N114" s="2" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1">
+      <c r="A115" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L115" s="2" t="n"/>
+      <c r="M115" s="2" t="n"/>
+      <c r="N115" s="2" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1">
+      <c r="A116" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>박경희</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>개발중입니다</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>모두좋아 경추베개</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>너무 좋아요, 사랑해요 엘쥐</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>구매완료</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="L116" s="2" t="n"/>
+      <c r="M116" s="2" t="n"/>
+      <c r="N116" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
